--- a/Circuit.xlsx
+++ b/Circuit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amams\OneDrive\Desktop\My Projects\RGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32C7F51-222A-4FCF-9252-E13888C86547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56355B3-B7DC-4BD4-8428-40416D35F82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{34F7EAC5-F864-4B35-AFC1-12F4212E8455}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34F7EAC5-F864-4B35-AFC1-12F4212E8455}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
   <si>
     <t>GND</t>
   </si>
@@ -44,13 +44,49 @@
     <t>o</t>
   </si>
   <si>
-    <t>R</t>
+    <t>x</t>
   </si>
   <si>
-    <t>G</t>
+    <t>R1</t>
   </si>
   <si>
-    <t>B</t>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Buzzer</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>`</t>
   </si>
 </sst>
 </file>
@@ -160,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -169,21 +205,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -222,19 +243,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -315,6 +323,281 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -323,216 +606,261 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -558,16 +886,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>61934</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>25401</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -597,8 +925,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9118600" y="2235200"/>
-          <a:ext cx="12185650" cy="7207250"/>
+          <a:off x="6172200" y="355601"/>
+          <a:ext cx="9320234" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -619,16 +947,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13606</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14514</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>343806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>331661</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>163837</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41921</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -656,8 +984,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3279321" y="367392"/>
-          <a:ext cx="1814840" cy="1919160"/>
+          <a:off x="4129314" y="699406"/>
+          <a:ext cx="1741907" cy="1827894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,287 +1307,362 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="J3:AK24"/>
+  <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G8" zoomScale="82" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:U24"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AY18" sqref="AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="5" style="1"/>
+    <col min="1" max="14" width="5" style="1"/>
+    <col min="15" max="15" width="5" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="5" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="Z3"/>
-      <c r="AK3"/>
-    </row>
-    <row r="9" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-    </row>
-    <row r="10" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J10" s="9"/>
-      <c r="L10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="14">
+    <row r="1" spans="2:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" s="58"/>
+    </row>
+    <row r="2" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="67">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="32" t="s">
+    <row r="3" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="67" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="55"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="71" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="S11" s="19"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11"/>
+    </row>
+    <row r="9" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9" s="74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="75">
+        <v>7</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="45"/>
+    </row>
+    <row r="12" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="58"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="70">
+        <v>8</v>
+      </c>
       <c r="N12" s="46"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="25">
+      <c r="O12" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="P12" s="48"/>
+    </row>
+    <row r="13" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="10:37" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="68" t="s">
+      <c r="J13" s="58"/>
+      <c r="K13" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="49"/>
+      <c r="O13" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="48"/>
+    </row>
+    <row r="14" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" s="50"/>
+      <c r="O14" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="48"/>
+    </row>
+    <row r="15" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="36"/>
-      <c r="U18" s="2">
+      <c r="C15" s="59"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="36" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="51">
+      <c r="F15" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" s="10"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="43"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="30"/>
-      <c r="U20" s="49">
+      <c r="H15" s="33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="43"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="26"/>
-      <c r="U21" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="57"/>
-      <c r="U22" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L23" s="70" t="s">
-        <v>0</v>
-      </c>
-      <c r="M23" s="64"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="62" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="N15" s="51"/>
+      <c r="O15" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="48"/>
+    </row>
+    <row r="16" spans="2:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="67" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" s="57"/>
-      <c r="U23" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="12:21" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="48"/>
-      <c r="U24" s="2" t="s">
-        <v>1</v>
+      <c r="J16" s="60"/>
+      <c r="K16" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="N16" s="52"/>
+      <c r="O16" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="5:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+    </row>
+    <row r="20" spans="5:12" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/Circuit.xlsx
+++ b/Circuit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amams\OneDrive\Desktop\My Projects\RGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56355B3-B7DC-4BD4-8428-40416D35F82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7446B67-8785-4811-9138-BD66F3EE460C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34F7EAC5-F864-4B35-AFC1-12F4212E8455}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="25">
   <si>
     <t>GND</t>
   </si>
@@ -87,6 +87,30 @@
   </si>
   <si>
     <t>`</t>
+  </si>
+  <si>
+    <t>D0</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>Buz</t>
   </si>
 </sst>
 </file>
@@ -196,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -589,6 +613,45 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -606,7 +669,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -861,6 +924,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,16 +976,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>342901</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>61934</xdr:colOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>74634</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>25401</xdr:rowOff>
+      <xdr:rowOff>12701</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -925,7 +1015,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6172200" y="355601"/>
+          <a:off x="5842000" y="342901"/>
           <a:ext cx="9320234" cy="5715000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -947,16 +1037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>14514</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>343806</xdr:rowOff>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>1814</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>331106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>41921</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>29221</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -984,7 +1074,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4129314" y="699406"/>
+          <a:off x="15775214" y="2464706"/>
           <a:ext cx="1741907" cy="1827894"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1310,7 +1400,7 @@
   <dimension ref="B1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+      <selection activeCell="BD12" sqref="BD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5" defaultRowHeight="28.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1340,6 +1430,15 @@
       <c r="K2" s="67">
         <v>0</v>
       </c>
+      <c r="N2" s="87" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="66">
+        <v>16</v>
+      </c>
+      <c r="P2" s="67" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="68" t="s">
@@ -1365,6 +1464,15 @@
       <c r="J3" s="14"/>
       <c r="K3" s="69">
         <v>1</v>
+      </c>
+      <c r="N3" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="14">
+        <v>5</v>
+      </c>
+      <c r="P3" s="75" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1382,6 +1490,15 @@
       <c r="K4" s="70">
         <v>2</v>
       </c>
+      <c r="N4" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4" s="86">
+        <v>4</v>
+      </c>
+      <c r="P4" s="70" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="68" t="s">
@@ -1399,6 +1516,15 @@
       <c r="J5" s="18"/>
       <c r="K5" s="71" t="s">
         <v>1</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="24">
+        <v>14</v>
+      </c>
+      <c r="P5" s="91" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1418,6 +1544,15 @@
       <c r="K6" s="72" t="s">
         <v>1</v>
       </c>
+      <c r="N6" s="90" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="24">
+        <v>12</v>
+      </c>
+      <c r="P6" s="91" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="68" t="s">
@@ -1438,8 +1573,17 @@
       <c r="K7" s="72" t="s">
         <v>1</v>
       </c>
+      <c r="N7" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="14">
+        <v>13</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="8" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="68" t="s">
         <v>1</v>
       </c>
@@ -1453,6 +1597,15 @@
       <c r="J8" s="26"/>
       <c r="K8" s="73" t="s">
         <v>0</v>
+      </c>
+      <c r="N8" s="92" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="93">
+        <v>15</v>
+      </c>
+      <c r="P8" s="94" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
